--- a/Assignment 2 - app.vwo.com Login Testcases.xlsx
+++ b/Assignment 2 - app.vwo.com Login Testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepika\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C24536-1F56-4749-96E5-43285C54F495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DCC6D2-5818-4E96-B32F-0CBD15807AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -34,234 +34,18 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>TC_005</t>
-  </si>
-  <si>
-    <t>TC_006</t>
-  </si>
-  <si>
-    <t>TC_007</t>
-  </si>
-  <si>
-    <t>TC_008</t>
-  </si>
-  <si>
-    <t>User Authentication</t>
-  </si>
-  <si>
     <t>User is not logged in</t>
   </si>
   <si>
     <t>User is logged in successfully</t>
   </si>
   <si>
-    <t>Invalid Login Attempt</t>
-  </si>
-  <si>
     <t>Error message: "Invalid username or password"</t>
   </si>
   <si>
-    <t>Forgot Password Functionality</t>
-  </si>
-  <si>
-    <t>Password reset link sent to user's email</t>
-  </si>
-  <si>
-    <t>Dashboard Load</t>
-  </si>
-  <si>
     <t>User is logged in</t>
   </si>
   <si>
-    <t>1. Navigate to dashboard</t>
-  </si>
-  <si>
-    <t>Dashboard elements (graphs, metrics) are displayed</t>
-  </si>
-  <si>
-    <t>Dashboard Widgets</t>
-  </si>
-  <si>
-    <t>Dashboard is loaded</t>
-  </si>
-  <si>
-    <t>1. Click on different widgets (e.g., graphs, data tables)</t>
-  </si>
-  <si>
-    <t>Proper rendering of data and interactive elements</t>
-  </si>
-  <si>
-    <t>Create New A/B Test</t>
-  </si>
-  <si>
-    <t>New A/B test created successfully</t>
-  </si>
-  <si>
-    <t>Edit Existing Experiment</t>
-  </si>
-  <si>
-    <t>Existing experiment is available</t>
-  </si>
-  <si>
-    <t>Changes saved and reflected in experiment setup</t>
-  </si>
-  <si>
-    <t>Pause/Resume Experiment</t>
-  </si>
-  <si>
-    <t>Experiment is running</t>
-  </si>
-  <si>
-    <t>1. Click 'Pause' or 'Resume' button</t>
-  </si>
-  <si>
-    <t>Experiment status changes accordingly</t>
-  </si>
-  <si>
-    <t>TC_009</t>
-  </si>
-  <si>
-    <t>Integration with Third-Party Tools</t>
-  </si>
-  <si>
-    <t>Data syncing and integration with third-party tool successful</t>
-  </si>
-  <si>
-    <t>TC_010</t>
-  </si>
-  <si>
-    <t>Compatibility Testing</t>
-  </si>
-  <si>
-    <t>1. Access app.vwo.com on different browsers and devices</t>
-  </si>
-  <si>
-    <t>Consistent functionality and layout across all platforms</t>
-  </si>
-  <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>Application Performance - Normal Load</t>
-  </si>
-  <si>
-    <t>1. Simulate normal user load</t>
-  </si>
-  <si>
-    <t>App responds within acceptable response times</t>
-  </si>
-  <si>
-    <t>TC_012</t>
-  </si>
-  <si>
-    <t>Application Performance - Peak Load</t>
-  </si>
-  <si>
-    <t>1. Simulate peak user load</t>
-  </si>
-  <si>
-    <t>App handles load without slowdowns or crashes</t>
-  </si>
-  <si>
-    <t>TC_013</t>
-  </si>
-  <si>
-    <t>HTTPS Security</t>
-  </si>
-  <si>
-    <t>1. Access app.vwo.com via HTTPS</t>
-  </si>
-  <si>
-    <t>Secure connection established without SSL errors</t>
-  </si>
-  <si>
-    <t>TC_014</t>
-  </si>
-  <si>
-    <t>Session Management and Timeout</t>
-  </si>
-  <si>
-    <t>1. Stay idle for session timeout duration</t>
-  </si>
-  <si>
-    <t>User logged out automatically after session timeout</t>
-  </si>
-  <si>
-    <t>TC_015</t>
-  </si>
-  <si>
-    <t>Accessibility Compliance</t>
-  </si>
-  <si>
-    <t>1. Use screen reader or keyboard navigation</t>
-  </si>
-  <si>
-    <t>App elements are accessible and navigable</t>
-  </si>
-  <si>
-    <t>TC_016</t>
-  </si>
-  <si>
-    <t>UI Consistency and Usability</t>
-  </si>
-  <si>
-    <t>1. Navigate through different sections and features</t>
-  </si>
-  <si>
-    <t>Intuitive UI with consistent layout and navigation flow</t>
-  </si>
-  <si>
-    <t>TC_017</t>
-  </si>
-  <si>
-    <t>Backup and Recovery</t>
-  </si>
-  <si>
-    <t>1. Perform backup operation</t>
-  </si>
-  <si>
-    <t>Data backed up successfully and restoration tested</t>
-  </si>
-  <si>
-    <t>TC_018</t>
-  </si>
-  <si>
-    <t>Error Handling - Unexpected Inputs</t>
-  </si>
-  <si>
-    <t>1. Enter invalid data or trigger unexpected behavior</t>
-  </si>
-  <si>
-    <t>App displays appropriate error messages</t>
-  </si>
-  <si>
-    <t>1. Enter invalid username or password.2. Click 'Login'</t>
-  </si>
-  <si>
-    <t>1. Click 'Forgot Password'.2. Enter registered email address.3. Click 'Reset Password'</t>
-  </si>
-  <si>
-    <t>1. Navigate to 'Create New Test'.2. Enter experiment details.3. Click 'Save'</t>
-  </si>
-  <si>
-    <t>1. Select an experiment to edit.2. Modify experiment details.3. Click 'Save'</t>
-  </si>
-  <si>
-    <t>1. Configure integration settings (e.g., Google Analytics).2. Save settings</t>
-  </si>
-  <si>
     <t>Test Steps</t>
   </si>
   <si>
@@ -274,7 +58,133 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>1. Enter valid username and password&lt;br&gt;2. Click 'Login'</t>
+    <t>TC_LOGIN_001</t>
+  </si>
+  <si>
+    <t>Login with Valid Credentials</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_002</t>
+  </si>
+  <si>
+    <t>Login with Invalid Username</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_003</t>
+  </si>
+  <si>
+    <t>Login with Invalid Password</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_004</t>
+  </si>
+  <si>
+    <t>Login with Empty Username</t>
+  </si>
+  <si>
+    <t>Error message: "Username is required"</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_005</t>
+  </si>
+  <si>
+    <t>Login with Empty Password</t>
+  </si>
+  <si>
+    <t>Error message: "Password is required"</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_006</t>
+  </si>
+  <si>
+    <t>Login with Locked Account</t>
+  </si>
+  <si>
+    <t>User account is locked</t>
+  </si>
+  <si>
+    <t>Error message: "Your account is locked. Please contact support."</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_007</t>
+  </si>
+  <si>
+    <t>Login with Disabled Account</t>
+  </si>
+  <si>
+    <t>User account is disabled</t>
+  </si>
+  <si>
+    <t>Error message: "Your account is disabled."</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_008</t>
+  </si>
+  <si>
+    <t>Login with Inactive Account</t>
+  </si>
+  <si>
+    <t>User account is inactive</t>
+  </si>
+  <si>
+    <t>Error message: "Your account is inactive. Please verify your email."</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_009</t>
+  </si>
+  <si>
+    <t>Login with Expired Password Reset Link</t>
+  </si>
+  <si>
+    <t>Password reset link has expired</t>
+  </si>
+  <si>
+    <t>Error message: "Your password reset link has expired."</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_010</t>
+  </si>
+  <si>
+    <t>Login with Remember Me Option</t>
+  </si>
+  <si>
+    <t>User is logged in successfully and session is remembered</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_011</t>
+  </si>
+  <si>
+    <t>Concurrent Login Prevention</t>
+  </si>
+  <si>
+    <t>1. Attempt to login from another device/browser while already logged in</t>
+  </si>
+  <si>
+    <t>Error message: "Another session is active. Please logout from other session or contact support."</t>
+  </si>
+  <si>
+    <t>1. Enter valid username and password.2. Click 'Login'</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username.2. Enter valid password.3. Click 'Login'</t>
+  </si>
+  <si>
+    <t>1. Enter valid username.2. Enter invalid password.3. Click 'Login'</t>
+  </si>
+  <si>
+    <t>1. Leave username field empty.2. Enter valid password.3. Click 'Login'</t>
+  </si>
+  <si>
+    <t>1. Enter valid username.2. Leave password field empty.3. Click 'Login'</t>
+  </si>
+  <si>
+    <t>1. Enter valid username.2. Enter valid password.3. Click 'Login'</t>
+  </si>
+  <si>
+    <t>1. Click on expired password reset link.2. Follow instructions to reset password</t>
+  </si>
+  <si>
+    <t>1. Select "Remember Me" checkbox.2. Enter valid username and password.3. Click 'Login'</t>
   </si>
 </sst>
 </file>
@@ -310,7 +220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,8 +471,8 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -584,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -608,19 +518,19 @@
     </row>
     <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -628,79 +538,79 @@
     </row>
     <row r="3" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -708,19 +618,19 @@
     </row>
     <row r="7" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -728,7 +638,7 @@
     </row>
     <row r="8" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -737,7 +647,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
@@ -746,18 +656,18 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>35</v>
@@ -766,7 +676,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -774,30 +684,30 @@
         <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>42</v>
@@ -814,7 +724,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>45</v>
@@ -826,142 +736,72 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
-      </c>
+    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>62</v>
-      </c>
+    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
+    <row r="17" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
-      </c>
+    <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>74</v>
-      </c>
+    <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
   </sheetData>
